--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\CRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96212A-C162-4D22-88EB-403A8070D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334553CE-9108-465A-AD0E-515BBC5CFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="75" windowWidth="17085" windowHeight="17175" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="225" windowWidth="22125" windowHeight="17175" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -849,121 +849,125 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="3">
         <v>2020</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>2034</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="3">
         <v>2035</v>
       </c>
-      <c r="R1" s="3">
+      <c r="S1" s="3">
         <v>2036</v>
       </c>
-      <c r="S1" s="3">
+      <c r="T1" s="3">
         <v>2037</v>
       </c>
-      <c r="T1" s="3">
+      <c r="U1" s="3">
         <v>2038</v>
       </c>
-      <c r="U1" s="3">
+      <c r="V1" s="3">
         <v>2039</v>
       </c>
-      <c r="V1" s="3">
+      <c r="W1" s="3">
         <v>2040</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="3">
         <v>2041</v>
       </c>
-      <c r="X1" s="3">
+      <c r="Y1" s="3">
         <v>2042</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Z1" s="3">
         <v>2043</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="AA1" s="3">
         <v>2044</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="3">
         <v>2045</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AC1" s="3">
         <v>2046</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="3">
         <v>2047</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AE1" s="3">
         <v>2048</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AF1" s="3">
         <v>2049</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AG1" s="3">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <f>C2</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -1056,13 +1060,17 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B17" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -1155,13 +1163,17 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AH3" s="1"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4">
@@ -1254,13 +1266,17 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AH4" s="1"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5">
@@ -1353,13 +1369,17 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AH5" s="1"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6">
@@ -1452,13 +1472,17 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AH6" s="1"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
@@ -1551,13 +1575,17 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AH7" s="1"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8">
@@ -1650,13 +1678,17 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9">
@@ -1749,13 +1781,17 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AH9" s="1"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10">
@@ -1848,13 +1884,17 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AH10" s="1"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11">
@@ -1947,13 +1987,17 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AH11" s="1"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12">
@@ -2046,13 +2090,17 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AH12" s="1"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13">
@@ -2145,13 +2193,17 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AH13" s="1"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14">
@@ -2244,13 +2296,17 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AH14" s="1"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15">
@@ -2343,12 +2399,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16">
@@ -2441,12 +2501,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17">
@@ -2537,6 +2601,9 @@
         <v>0</v>
       </c>
       <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>0</v>
       </c>
     </row>
